--- a/Carte NaoMark/ListeNaomark.xlsx
+++ b/Carte NaoMark/ListeNaomark.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\Github\ProjetNao\Carte NaoMark\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/louis-clementlangue/Library/Mobile Documents/com~apple~CloudDocs/Cours/CIR3/Projet/Nao/ProjetNao/Carte NaoMark/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FEC16A5E-5E3B-4092-9E9A-3842C977FD1D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75F7B23F-2B7B-BE4A-BA98-4BEDFEA17456}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-10995" yWindow="2490" windowWidth="14400" windowHeight="7365" xr2:uid="{9C151C1D-9303-41A8-8BCC-0148B9E4B5E4}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="18880" xr2:uid="{9C151C1D-9303-41A8-8BCC-0148B9E4B5E4}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -404,15 +404,15 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -764,23 +764,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F93BCA1-08A7-4F7E-8655-A2219C7B6F08}">
   <dimension ref="A1:K62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="F56" sqref="F56"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="15.85546875" customWidth="1"/>
-    <col min="3" max="3" width="25.5703125" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" customWidth="1"/>
+    <col min="1" max="2" width="15.83203125" customWidth="1"/>
+    <col min="3" max="3" width="25.5" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" customWidth="1"/>
     <col min="6" max="6" width="24" customWidth="1"/>
-    <col min="7" max="7" width="19.5703125" customWidth="1"/>
-    <col min="8" max="8" width="26.42578125" customWidth="1"/>
-    <col min="9" max="9" width="22.42578125" customWidth="1"/>
-    <col min="10" max="10" width="21.7109375" customWidth="1"/>
+    <col min="7" max="7" width="19.5" customWidth="1"/>
+    <col min="8" max="8" width="26.5" customWidth="1"/>
+    <col min="9" max="9" width="22.5" customWidth="1"/>
+    <col min="10" max="10" width="21.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -796,16 +796,16 @@
       <c r="E1" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>187</v>
       </c>
@@ -820,7 +820,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>107</v>
       </c>
@@ -853,7 +853,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>108</v>
       </c>
@@ -886,7 +886,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>109</v>
       </c>
@@ -919,7 +919,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>112</v>
       </c>
@@ -952,7 +952,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>114</v>
       </c>
@@ -985,7 +985,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>117</v>
       </c>
@@ -1018,7 +1018,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>119</v>
       </c>
@@ -1051,7 +1051,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>124</v>
       </c>
@@ -1084,7 +1084,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>125</v>
       </c>
@@ -1117,7 +1117,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>127</v>
       </c>
@@ -1150,7 +1150,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>128</v>
       </c>
@@ -1183,7 +1183,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>130</v>
       </c>
@@ -1216,7 +1216,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>131</v>
       </c>
@@ -1245,7 +1245,7 @@
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>136</v>
       </c>
@@ -1257,7 +1257,7 @@
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="3" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>81</v>
@@ -1278,7 +1278,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>138</v>
       </c>
@@ -1311,7 +1311,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>141</v>
       </c>
@@ -1344,7 +1344,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>143</v>
       </c>
@@ -1377,7 +1377,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>146</v>
       </c>
@@ -1410,7 +1410,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>148</v>
       </c>
@@ -1443,7 +1443,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>170</v>
       </c>
@@ -1476,7 +1476,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>64</v>
       </c>
@@ -1486,12 +1486,12 @@
       <c r="C23" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D23" s="6"/>
+      <c r="D23" s="5"/>
       <c r="E23" s="3" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>68</v>
       </c>
@@ -1501,12 +1501,12 @@
       <c r="C24" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D24" s="7"/>
+      <c r="D24" s="6"/>
       <c r="E24" s="3" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>80</v>
       </c>
@@ -1516,12 +1516,12 @@
       <c r="C25" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D25" s="8"/>
+      <c r="D25" s="7"/>
       <c r="E25" s="3" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>84</v>
       </c>
@@ -1531,12 +1531,12 @@
       <c r="C26" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D26" s="9"/>
+      <c r="D26" s="8"/>
       <c r="E26" s="3" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>107</v>
       </c>
@@ -1546,12 +1546,12 @@
       <c r="C27" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D27" s="8"/>
+      <c r="D27" s="7"/>
       <c r="E27" s="3" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>108</v>
       </c>
@@ -1561,12 +1561,12 @@
       <c r="C28" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D28" s="8"/>
+      <c r="D28" s="7"/>
       <c r="E28" s="3" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>109</v>
       </c>
@@ -1576,12 +1576,12 @@
       <c r="C29" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D29" s="8"/>
+      <c r="D29" s="7"/>
       <c r="E29" s="3" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>112</v>
       </c>
@@ -1591,12 +1591,12 @@
       <c r="C30" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D30" s="8"/>
+      <c r="D30" s="7"/>
       <c r="E30" s="3" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>114</v>
       </c>
@@ -1606,12 +1606,12 @@
       <c r="C31" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D31" s="8"/>
+      <c r="D31" s="7"/>
       <c r="E31" s="3" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>117</v>
       </c>
@@ -1621,12 +1621,12 @@
       <c r="C32" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D32" s="8"/>
+      <c r="D32" s="7"/>
       <c r="E32" s="3" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>119</v>
       </c>
@@ -1636,12 +1636,12 @@
       <c r="C33" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D33" s="8"/>
+      <c r="D33" s="7"/>
       <c r="E33" s="3" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>124</v>
       </c>
@@ -1651,12 +1651,12 @@
       <c r="C34" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D34" s="8"/>
+      <c r="D34" s="7"/>
       <c r="E34" s="3" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>125</v>
       </c>
@@ -1666,12 +1666,12 @@
       <c r="C35" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D35" s="8"/>
+      <c r="D35" s="7"/>
       <c r="E35" s="3" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>127</v>
       </c>
@@ -1681,12 +1681,12 @@
       <c r="C36" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D36" s="8"/>
+      <c r="D36" s="7"/>
       <c r="E36" s="3" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>128</v>
       </c>
@@ -1696,12 +1696,12 @@
       <c r="C37" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D37" s="8"/>
+      <c r="D37" s="7"/>
       <c r="E37" s="3" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>130</v>
       </c>
@@ -1711,12 +1711,12 @@
       <c r="C38" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D38" s="8"/>
+      <c r="D38" s="7"/>
       <c r="E38" s="3" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>131</v>
       </c>
@@ -1726,12 +1726,12 @@
       <c r="C39" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D39" s="8"/>
+      <c r="D39" s="7"/>
       <c r="E39" s="3" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>136</v>
       </c>
@@ -1741,12 +1741,12 @@
       <c r="C40" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D40" s="8"/>
+      <c r="D40" s="7"/>
       <c r="E40" s="3" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>138</v>
       </c>
@@ -1756,12 +1756,12 @@
       <c r="C41" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D41" s="8"/>
+      <c r="D41" s="7"/>
       <c r="E41" s="3" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>141</v>
       </c>
@@ -1771,12 +1771,12 @@
       <c r="C42" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D42" s="7"/>
+      <c r="D42" s="6"/>
       <c r="E42" s="3" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>143</v>
       </c>
@@ -1786,12 +1786,12 @@
       <c r="C43" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D43" s="7"/>
+      <c r="D43" s="6"/>
       <c r="E43" s="3" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>146</v>
       </c>
@@ -1801,12 +1801,12 @@
       <c r="C44" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D44" s="7"/>
+      <c r="D44" s="6"/>
       <c r="E44" s="3" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>148</v>
       </c>
@@ -1816,12 +1816,12 @@
       <c r="C45" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D45" s="7"/>
+      <c r="D45" s="6"/>
       <c r="E45" s="3" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>170</v>
       </c>
@@ -1831,12 +1831,12 @@
       <c r="C46" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D46" s="7"/>
+      <c r="D46" s="6"/>
       <c r="E46" s="3" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>109</v>
       </c>
@@ -1846,12 +1846,12 @@
       <c r="C47" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D47" s="7"/>
+      <c r="D47" s="6"/>
       <c r="E47" s="3" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>112</v>
       </c>
@@ -1861,12 +1861,12 @@
       <c r="C48" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D48" s="7"/>
+      <c r="D48" s="6"/>
       <c r="E48" s="3" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>114</v>
       </c>
@@ -1874,12 +1874,12 @@
         <v>40</v>
       </c>
       <c r="C49" s="1"/>
-      <c r="D49" s="7"/>
+      <c r="D49" s="6"/>
       <c r="E49" s="3" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>117</v>
       </c>
@@ -1887,12 +1887,12 @@
         <v>40</v>
       </c>
       <c r="C50" s="1"/>
-      <c r="D50" s="7"/>
+      <c r="D50" s="6"/>
       <c r="E50" s="3" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>119</v>
       </c>
@@ -1902,12 +1902,12 @@
       <c r="C51" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D51" s="9"/>
+      <c r="D51" s="8"/>
       <c r="E51" s="3" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>124</v>
       </c>
@@ -1917,12 +1917,12 @@
       <c r="C52" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D52" s="9"/>
+      <c r="D52" s="8"/>
       <c r="E52" s="3" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>125</v>
       </c>
@@ -1932,12 +1932,12 @@
       <c r="C53" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D53" s="9"/>
+      <c r="D53" s="8"/>
       <c r="E53" s="3" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>127</v>
       </c>
@@ -1947,12 +1947,12 @@
       <c r="C54" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D54" s="9"/>
+      <c r="D54" s="8"/>
       <c r="E54" s="3" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>128</v>
       </c>
@@ -1965,7 +1965,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>130</v>
       </c>
@@ -1978,7 +1978,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>131</v>
       </c>
@@ -1991,7 +1991,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>136</v>
       </c>
@@ -2004,7 +2004,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>138</v>
       </c>
@@ -2017,7 +2017,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>141</v>
       </c>
@@ -2030,7 +2030,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>175</v>
       </c>
@@ -2040,12 +2040,12 @@
       <c r="C61" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D61" s="10"/>
+      <c r="D61" s="9"/>
       <c r="E61" s="3" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>187</v>
       </c>
@@ -2055,7 +2055,7 @@
       <c r="C62" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D62" s="11"/>
+      <c r="D62" s="10"/>
       <c r="E62" s="3" t="s">
         <v>83</v>
       </c>

--- a/Carte NaoMark/ListeNaomark.xlsx
+++ b/Carte NaoMark/ListeNaomark.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/louis-clementlangue/Library/Mobile Documents/com~apple~CloudDocs/Cours/CIR3/Projet/Nao/ProjetNao/Carte NaoMark/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75F7B23F-2B7B-BE4A-BA98-4BEDFEA17456}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0221478B-0843-3445-BF9A-4EA8B8CA99EA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="18880" xr2:uid="{9C151C1D-9303-41A8-8BCC-0148B9E4B5E4}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="87">
   <si>
     <t>numero NaoMark</t>
   </si>
@@ -105,9 +105,6 @@
   </si>
   <si>
     <t>Attente10</t>
-  </si>
-  <si>
-    <t>Menucomptines</t>
   </si>
   <si>
     <t>Menudanses</t>
@@ -315,7 +312,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -331,12 +328,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -398,7 +389,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -407,9 +398,8 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -762,10 +752,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F93BCA1-08A7-4F7E-8655-A2219C7B6F08}">
-  <dimension ref="A1:K62"/>
+  <dimension ref="A1:K61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F46" sqref="F46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -791,19 +781,19 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F1" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
@@ -817,7 +807,7 @@
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
@@ -832,25 +822,25 @@
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
@@ -865,25 +855,25 @@
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F4" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
@@ -898,25 +888,25 @@
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
@@ -931,25 +921,25 @@
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
@@ -964,25 +954,25 @@
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
@@ -997,25 +987,25 @@
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
@@ -1030,25 +1020,25 @@
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
@@ -1063,25 +1053,25 @@
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
@@ -1096,25 +1086,25 @@
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
@@ -1129,25 +1119,25 @@
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
@@ -1162,25 +1152,25 @@
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F13" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G13" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="H13" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="I13" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="I13" s="1" t="s">
+      <c r="J13" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="J13" s="1" t="s">
+      <c r="K13" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
@@ -1195,25 +1185,25 @@
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F14" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G14" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="H14" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="I14" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="H14" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="I14" s="1" t="s">
+      <c r="J14" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="J14" s="1" t="s">
+      <c r="K14" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
@@ -1228,19 +1218,19 @@
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F15" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G15" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="H15" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="H15" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="I15" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
@@ -1257,25 +1247,25 @@
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
@@ -1290,25 +1280,25 @@
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
@@ -1323,25 +1313,25 @@
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
@@ -1356,25 +1346,25 @@
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
@@ -1389,25 +1379,25 @@
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
@@ -1422,25 +1412,25 @@
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
@@ -1455,30 +1445,30 @@
       </c>
       <c r="D22" s="4"/>
       <c r="E22" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>3</v>
@@ -1488,12 +1478,12 @@
       </c>
       <c r="D23" s="5"/>
       <c r="E23" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>3</v>
@@ -1503,12 +1493,12 @@
       </c>
       <c r="D24" s="6"/>
       <c r="E24" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>3</v>
@@ -1518,546 +1508,531 @@
       </c>
       <c r="D25" s="7"/>
       <c r="E25" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
-        <v>84</v>
+        <v>107</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D26" s="8"/>
+        <v>29</v>
+      </c>
+      <c r="D26" s="6"/>
       <c r="E26" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D27" s="7"/>
+      <c r="D27" s="6"/>
       <c r="E27" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D28" s="7"/>
+      <c r="D28" s="6"/>
       <c r="E28" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D29" s="7"/>
+      <c r="D29" s="6"/>
       <c r="E29" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D30" s="7"/>
+      <c r="D30" s="6"/>
       <c r="E30" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D31" s="7"/>
+      <c r="D31" s="6"/>
       <c r="E31" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D32" s="7"/>
+      <c r="D32" s="6"/>
       <c r="E32" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D33" s="7"/>
+      <c r="D33" s="6"/>
       <c r="E33" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D34" s="7"/>
+      <c r="D34" s="6"/>
       <c r="E34" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D35" s="7"/>
+        <v>80</v>
+      </c>
+      <c r="D35" s="6"/>
       <c r="E35" s="3" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D36" s="7"/>
+        <v>80</v>
+      </c>
+      <c r="D36" s="6"/>
       <c r="E36" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D37" s="7"/>
+        <v>80</v>
+      </c>
+      <c r="D37" s="6"/>
       <c r="E37" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D38" s="7"/>
+        <v>80</v>
+      </c>
+      <c r="D38" s="6"/>
       <c r="E38" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D39" s="7"/>
+        <v>80</v>
+      </c>
+      <c r="D39" s="6"/>
       <c r="E39" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D40" s="7"/>
+        <v>80</v>
+      </c>
+      <c r="D40" s="6"/>
       <c r="E40" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D41" s="7"/>
+        <v>40</v>
+      </c>
+      <c r="D41" s="5"/>
       <c r="E41" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D42" s="6"/>
+      <c r="D42" s="5"/>
       <c r="E42" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D43" s="6"/>
+      <c r="D43" s="5"/>
       <c r="E43" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D44" s="6"/>
+      <c r="D44" s="5"/>
       <c r="E44" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
-        <v>148</v>
+        <v>170</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D45" s="6"/>
+      <c r="D45" s="5"/>
       <c r="E45" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
-        <v>170</v>
+        <v>109</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D46" s="6"/>
+      <c r="D46" s="5"/>
       <c r="E46" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D47" s="6"/>
+        <v>79</v>
+      </c>
+      <c r="D47" s="5"/>
       <c r="E47" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D48" s="6"/>
+        <v>39</v>
+      </c>
+      <c r="C48" s="1"/>
+      <c r="D48" s="5"/>
       <c r="E48" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C49" s="1"/>
-      <c r="D49" s="6"/>
+      <c r="D49" s="5"/>
       <c r="E49" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C50" s="1"/>
-      <c r="D50" s="6"/>
+        <v>38</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D50" s="7"/>
       <c r="E50" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D51" s="8"/>
+      <c r="D51" s="7"/>
       <c r="E51" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D52" s="8"/>
+      <c r="D52" s="7"/>
       <c r="E52" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D53" s="8"/>
+        <v>53</v>
+      </c>
+      <c r="D53" s="7"/>
       <c r="E53" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D54" s="8"/>
+        <v>38</v>
+      </c>
+      <c r="C54" s="1"/>
+      <c r="D54" s="7"/>
       <c r="E54" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
+      <c r="D55" s="7"/>
       <c r="E55" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
+      <c r="D56" s="7"/>
       <c r="E56" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C57" s="1"/>
-      <c r="D57" s="1"/>
+      <c r="D57" s="7"/>
       <c r="E57" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C58" s="1"/>
-      <c r="D58" s="1"/>
+      <c r="D58" s="7"/>
       <c r="E58" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C59" s="1"/>
-      <c r="D59" s="1"/>
+      <c r="D59" s="7"/>
       <c r="E59" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
-        <v>141</v>
+        <v>175</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C60" s="1"/>
-      <c r="D60" s="1"/>
+        <v>50</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D60" s="8"/>
       <c r="E60" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="B61" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C61" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>50</v>
       </c>
       <c r="D61" s="9"/>
       <c r="E61" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A62" s="1">
-        <v>187</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D62" s="10"/>
-      <c r="E62" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
